--- a/data/siRNA_bench/Eurofinsgenomics_siRNA_KIT_jbst.xlsx
+++ b/data/siRNA_bench/Eurofinsgenomics_siRNA_KIT_jbst.xlsx
@@ -594,18 +594,18 @@
         <v>6</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.53</v>
+        <v>36.84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RNAi_2</t>
+          <t>RNAi_1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TTATCTACTACTTCCAAGG</t>
+          <t>TATATGGCTCTTAATCTAC</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -630,7 +630,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['TTATCTACTACTTCCAAGG']</t>
+          <t>['TATATGGCTCTTAATCTAC']</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>CCTTGGAAGTAGTAGATAA</t>
+          <t>GTAGATTAAGAGCCATATA</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -668,21 +668,21 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>15.53</v>
+        <v>31.58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>RNAi_7</t>
+          <t>RNAi_9</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TCTTGTATCATCATACTAC</t>
+          <t>TCTATAACTAACAACCACT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -707,7 +707,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['TCTTGTATCATCATACTAC']</t>
+          <t>['TCTATAACTAACAACCACT']</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -733,7 +733,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>GTAGTATGATGATACAAGA</t>
+          <t>AGTGGTTGTTAGTTATAGA</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -745,21 +745,21 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>10.26</v>
+        <v>31.58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RNAi_4</t>
+          <t>RNAi_2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TTAATCTCGTTAGATGAAG</t>
+          <t>TTATCTACTACTTCCAAGG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -784,7 +784,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['TTAATCTCGTTAGATGAAG']</t>
+          <t>['TTATCTACTACTTCCAAGG']</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -802,15 +802,15 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>['TTAA']</t>
+          <t>[('CTT', 'GAA')]</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>CTTCATCTAACGAGATTAA</t>
+          <t>CCTTGGAAGTAGTAGATAA</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -822,21 +822,21 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q5" t="n">
-        <v>23.05</v>
+        <v>36.84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>RNAi_9</t>
+          <t>RNAi_5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TCTATAACTAACAACCACT</t>
+          <t>TTAATTAAGCCATAAGCAG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['TCTATAACTAACAACCACT']</t>
+          <t>['TTAATTAAGCCATAAGCAG']</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -879,15 +879,15 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>['TATA']</t>
+          <t>[('TTAA', 'AATT')]</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>AGTGGTTGTTAGTTATAGA</t>
+          <t>CTGCTTATGGCTTAATTAA</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -899,21 +899,21 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q6" t="n">
-        <v>6</v>
+        <v>31.58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>RNAi_8</t>
+          <t>RNAi_6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TGTATGAACACGGACAATT</t>
+          <t>TTCTGCATGATCTTCCTGC</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -938,7 +938,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['TGTATGAACACGGACAATT']</t>
+          <t>['TTCTGCATGATCTTCCTGC']</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -956,15 +956,15 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>['AATT']</t>
+          <t>[('GCA', 'CGT')]</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>AATTGTCCGTGTTCATACA</t>
+          <t>GCAGGAAGATCATGCAGAA</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -976,21 +976,21 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="Q7" t="n">
-        <v>24.05</v>
+        <v>47.37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>RNAi_3</t>
+          <t>RNAi_7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TATAGATCCACTGCTGGTG</t>
+          <t>TCTTGTATCATCATACTAC</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['TATAGATCCACTGCTGGTG']</t>
+          <t>['TCTTGTATCATCATACTAC']</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1033,15 +1033,15 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>['TATA', 'GATC']</t>
+          <t>[('GTAT', 'CATA')]</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>CACCAGCAGTGGATCTATA</t>
+          <t>GTAGTATGATGATACAAGA</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1053,21 +1053,21 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.32</v>
+        <v>31.58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>RNAi_6</t>
+          <t>RNAi_8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TTCTGCATGATCTTCCTGC</t>
+          <t>TGTATGAACACGGACAATT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['TTCTGCATGATCTTCCTGC']</t>
+          <t>['TGTATGAACACGGACAATT']</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1110,15 +1110,15 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>['CATG', 'TGCA', 'GATC']</t>
+          <t>[('TGT', 'ACA')]</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>0.631578947368421</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>GCAGGAAGATCATGCAGAA</t>
+          <t>AATTGTCCGTGTTCATACA</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1130,21 +1130,21 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="Q9" t="n">
-        <v>21.79</v>
+        <v>36.84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>RNAi_1</t>
+          <t>RNAi_3</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TATATGGCTCTTAATCTAC</t>
+          <t>TATAGATCCACTGCTGGTG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['TATATGGCTCTTAATCTAC']</t>
+          <t>['TATAGATCCACTGCTGGTG']</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1187,15 +1187,15 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>['ATAT', 'TATA', 'TTAA']</t>
+          <t>[('CCA', 'GGT'), ('CAC', 'GTG')]</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>0.631578947368421</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>GTAGATTAAGAGCCATATA</t>
+          <t>CACCAGCAGTGGATCTATA</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1207,21 +1207,21 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.53</v>
+        <v>47.37</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>RNAi_5</t>
+          <t>RNAi_4</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TTAATTAAGCCATAAGCAG</t>
+          <t>TTAATCTCGTTAGATGAAG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['TTAATTAAGCCATAAGCAG']</t>
+          <t>['TTAATCTCGTTAGATGAAG']</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1264,15 +1264,15 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>['AATT', 'TAATTA', 'TTAATTAA', 'TTAA']</t>
+          <t>[('TAA', 'ATT'), ('ATCT', 'TAGA')]</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>1.157894736842105</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>CTGCTTATGGCTTAATTAA</t>
+          <t>CTTCATCTAACGAGATTAA</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1284,10 +1284,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
-        <v>18.79</v>
+        <v>31.58</v>
       </c>
     </row>
   </sheetData>
